--- a/IpGASalesForce.xlsx
+++ b/IpGASalesForce.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Salesforce_LAccountFun" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SF_LAccountFun" sheetId="2" r:id="rId2"/>
     <x:sheet name="GA_GaTestPack001" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
